--- a/biology/Zoologie/Cypraea_tigris/Cypraea_tigris.xlsx
+++ b/biology/Zoologie/Cypraea_tigris/Cypraea_tigris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Porcelaine tigrée, Cyprée tigrée
 Cypraea tigris est une espèce très commune de mollusques gastéropodes marins du genre Cypraea (les  « porcelaines »).
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La porcelaine tigrée adulte atteint entre 38 mm et 134 mm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La porcelaine tigrée adulte atteint entre 38 mm et 134 mm.
 La forme de sa coquille est ovoïde, la teinte de fond est blanche à crème avec des taches brunes dont l'intensité des teintes, les dimensions des taches ainsi que leur répartition sont variables d'un individu à l'autre. La zone proche de l'ouverture ventrale est parsemée de points sombres plus ou moins circulaires.
 Le manteau, qui peut recouvrir en totalité la coquille lorsque le coquillage en activité, est papillé ; il laisse percevoir par transparence les dessins de la coquille. Il est de teinte blanche et noire avec de fins traits longitudinaux.
 			Vue du mollusque vivant dans son habitat, entièrement recouvert par son manteau.
@@ -523,13 +537,7 @@
 			En Australie.
 			?
 			A Sabah, en Malaisie.
-Variétés et sous-espèces
-Différentes formes de porcelaine existent :
-Cypraea tigris forme incana Sulliotti, 1924 [2]
-Cypraea tigris forme lyncicrosa Steadman &amp; Cotton, 1943[3]
-Cypraea tigris forme pardalis Shaw, 1795 [4]
-Cypraea tigris var. schilderiana  Cate, 1961 [5]. Cette variété diffère des autres par sa grande taille et son manque de callus marginal. On la trouve au bord des côtes de l'archipel d'Hawaï, et de l'atoll Johnston, ainsi que sur les côtes cochinchinoises[6].
-Cypraea tigris forme tuberculifera  Sulliotti, 1924 [7]</t>
+</t>
         </is>
       </c>
     </row>
@@ -554,13 +562,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La cyprée tigrée est présent dans les eaux tropicales de la région Indo-Pacifique, soit des côtes orientales de l'Afrique à Hawaii[1].
-</t>
+          <t>Variétés et sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Différentes formes de porcelaine existent :
+Cypraea tigris forme incana Sulliotti, 1924 
+Cypraea tigris forme lyncicrosa Steadman &amp; Cotton, 1943
+Cypraea tigris forme pardalis Shaw, 1795 
+Cypraea tigris var. schilderiana  Cate, 1961 . Cette variété diffère des autres par sa grande taille et son manque de callus marginal. On la trouve au bord des côtes de l'archipel d'Hawaï, et de l'atoll Johnston, ainsi que sur les côtes cochinchinoises.
+Cypraea tigris forme tuberculifera  Sulliotti, 1924 </t>
         </is>
       </c>
     </row>
@@ -585,12 +603,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce vit plutôt sous les eaux des barrières de corail entre 10 et 40 mètres de profondeur. Son habitat est menacé par le braconnage et la pêche à la dynamite.
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cyprée tigrée est présent dans les eaux tropicales de la région Indo-Pacifique, soit des côtes orientales de l'Afrique à Hawaii.
 </t>
         </is>
       </c>
@@ -616,13 +636,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Alimentation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce mollusque a une activité nocturne. C'est un omnivore qui se nourrit à l'âge adulte de corail, de divers invertébrés, d'algues et cadavres dont elle vient à bout avec sa langue râpeuse appelée radula[8].
-Au stade juvénile, il se nourrit d'algues[9]. 
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit plutôt sous les eaux des barrières de corail entre 10 et 40 mètres de profondeur. Son habitat est menacé par le braconnage et la pêche à la dynamite.
 </t>
         </is>
       </c>
@@ -648,14 +669,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Utilisations humaines</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les coquilles de ce mollusque sont utilisées depuis la Préhistoire, ainsi que le prouvent les fouilles archéologiques de sépultures préhistoriques près de Gand, dans des nécropoles gallo-romaines, près du Mont Rose, ou à Pompéi, ou bien près de Vinnytsia, ou encore dans des sépultures de la culture de Tcherniakhov[10]. Dans d'autres civilisations, comme à Hawaï, elles servent d'amulettes.
-Philatélie
-Ce coquillage figure sur une émission du Territoire français des Afars et des Issas de 1977 (valeur faciale : 5 F).
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce mollusque a une activité nocturne. C'est un omnivore qui se nourrit à l'âge adulte de corail, de divers invertébrés, d'algues et cadavres dont elle vient à bout avec sa langue râpeuse appelée radula.
+Au stade juvénile, il se nourrit d'algues. 
 </t>
         </is>
       </c>
@@ -681,10 +703,82 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Utilisations humaines</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les coquilles de ce mollusque sont utilisées depuis la Préhistoire, ainsi que le prouvent les fouilles archéologiques de sépultures préhistoriques près de Gand, dans des nécropoles gallo-romaines, près du Mont Rose, ou à Pompéi, ou bien près de Vinnytsia, ou encore dans des sépultures de la culture de Tcherniakhov. Dans d'autres civilisations, comme à Hawaï, elles servent d'amulettes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cypraea_tigris</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cypraea_tigris</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisations humaines</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce coquillage figure sur une émission du Territoire français des Afars et des Issas de 1977 (valeur faciale : 5 F).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cypraea_tigris</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cypraea_tigris</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Illustration de l’Index Testarum Conchyliorum de Niccolò Gualtieri (1742).
